--- a/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Before I begin my opening statement, let me just say that just last night I was briefed on the Farsi Island incident in January involving two U.S. Navy riverine boats and was deeply disturbed by what I heard. I was disturbed not just by the details of the incident itself, but about what they imply about the training and materiel readiness levels of our forces on the front lines and about our ability to deter Iranian aggression and malicious behavior in the Middle East.    Unfortunately, I think this administration's policies have seriously undermined both with grave implications for our men and women in uniform and our national security.    So I want to take this time to encourage my colleagues on this committee and throughout the rest of the House to get the briefing on this important topic.    And today, the subcommittee convenes to receive testimony on logistics and sealift fleet requirements.    I want to welcome our distinguished witnesses and thank them for the time and effort they expend on this most important issue. Gentlemen, we thank you for being with us today and for everything you do to defend our nation.    Since its earliest days, America has been a seafaring maritime nation with a robust merchant marine. Today, merchant ships carry around 90 percent of everything with the total amount having more than tripled since 1970. This seaborne trade fuels our economy and creates critical links with the global commons.    Unfortunately for our national security, however, this seaborne trade is being increasingly outsourced to other nations and our own merchant fleet is in decline.    Between the years 2000 and 2014, our U.S. commercial fleet has shrunk from 282 vessels to 179, a reduction of almost 40 percent. This commercial fleet reduction is increasingly problematic for the U.S. military and specifically for the U.S. Transportation Command [TRANSCOM] because these vessels support the military's maritime lift requirements and their crews provide the manning for military's mobilization forces according to MARAD [U.S. Maritime Administration] and TRANSCOM's assessments.    A reduction in the overall U.S. commercial sector has severely jeopardized our ability to sustain any level of prolonged military logistics support.    Furthermore, we are perilously close to not having sufficient mariners to support even the initial mobilization of our Navy's Ready Reserve Forces.    Unfortunately, the administration's fiscal year 2017 budget request accelerates this decline and weakens our military. The administration has proposed reducing funding for the Maritime Security Program [MSP] by almost 20 percent. Such a reduction will, in my view, undoubtedly reduce the size of our commercial fleet below TRANSCOM's military requirements and reduce our military surge capacity.    I look forward to better understanding the administration's proposal, but I am determined to change this dangerous trajectory.    Overall, I am concerned that this administration does not fully appreciate the connection between the health of our merchant fleet and our national security. Proposed changes to the Food for Peace program continue to hurt our farmers and our mariners.    While these changes would have economic impacts, this subcommittee is focused today upon its harmful impact to military readiness and the security of our nation.    In 1897, the first president of the Naval War College said that both from the military and economic view, an extensive marine commerce is a primal necessity to a country aspiring to be a naval power. In the years since, America has become the greatest naval power the world has ever seen.    But we must not let further decline in either our Navy fleet or our maritime commerce undermine our position.    I now turn to my good friend and colleague, the ranking member of the subcommittee, Congressman Courtney of Connecticut, for any remarks he may have to make.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 33.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And again, as someone who attended that briefing yesterday, I would join you in recommending to our colleagues that they follow up with the Navy to get that briefing.    Again, I don't want to just rehash a lot of the comments that you made just a moment ago because, particularly in terms of the Maritime Security Program, it is going to be, I think, an issue that our subcommittee is going to look at with this year's defense bill and for all the reasons that you set forth.    So again, rather than, you know, rehashing that comment, I guess the other issue I just would like to highlight in my opening remarks, and hopefully we will have a good dialogue today with an outstanding panel of witnesses, is the issue of maritime training requirements, because obviously we have got a workforce issue here in terms of kind of refreshing an aging workforce and in terms of, you know, the long view. This is really critical in terms of getting that right.    According to MARAD's own information, the oldest ship in the maritime training program that, again, is critical to training this next generation, the TS Empire State attached to SUNY [State University of New York] Maritime College is 55 years old and is expected to end its service life in 2019.    Again, according to MARAD, loss of this ship alone without replacement would cause a loss of 36 percent of the existing training ship capacity needed for mariner education, portrayed ``as a major setback to meet the rising national demand for mariners by the agency in its 2017 budget request to Congress.''    I want to applaud Administrator Jaenichen for his efforts to alert Congress to this issue. And again, we look forward to working with him as we put together our Seapower mark in the coming weeks to make sure that really we give these critical institutions the tools that they need to make sure that changing requirements in terms of what is needed out there are going to be met, because failure to do that is just going to create a cliff that really will ripple through our entire Armed Forces if we don't get it right.    So again, I want to thank the witnesses for being here today. I look forward to your testimony.    Again, I will request that my written remarks, prepared remarks be admitted for the record.    And yield the floor.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 35.]</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Jaenichen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jaenichen. Good afternoon, Chairman Forbes, Ranking Member Courtney, members of the subcommittee. Thank you for the opportunity to discuss the U.S. merchant marine and the support it provides for our nation to meet the Department of Defense logistics and sealift requirements.    The U.S.-flag fleet of privately owned, commercially operated vessels, along with government-owned vessels, provide sealift surge and sustainment capacity to move equipment and materiel to globally project our Armed Forces and Federal agencies when needed, where needed, during times of conflict, humanitarian crisis, and natural disasters.    Supporting these capabilities are the Maritime Administration's National Defense Reserve Fleet, Ready Reserve Force, and Maritime Security Program.    The Ready Reserve Force, or RRF, is a fleet of government-owned merchant-type vessels that ensure our capability to rapidly deploy military forces and equipment or emergency humanitarian assistance and disaster response supplies to events that require intervention by the U.S. Government.    The RRF currently consists of 46 ships selected on the basis of their capabilities, their readiness condition and location to meet Department of Defense expected surge sealift requirements.    While the RRF has provided reliable and safe sealift to support military and humanitarian missions in the past, the fleet is aging. The average age of the fleet is currently 39 years, well above the normal service life of commercial vessels.    The Maritime Administration is working closely with the Department of the Navy [DON] and DOD [Department of Defense] to monitor the material condition of the RRF as well as determining the future recapitalization requirements of the fleet.    I would note that while we have never fully activated the RRF, the 78 ships that were activated in support of operations in the first Gulf War exceed the number of vessels that I currently have in the RRF fleet.    The Maritime Security Act of 1996 established the Maritime Security Program, or MSP, which provides direct annual stipends for up to 60 active, commercially viable, militarily useful, privately owned, U.S.-flag vessels and crews operating in international trade.    The MSP fleet ensures DOD access to U.S.-flag ships and oceanborne commerce and international trade with the necessary intermodal logistics capability to move military equipment and supplies in the event of armed conflict or national emergency.    The fleet also provides critical employment for up to 2,400 qualified U.S. mariners.    Of the 78 U.S.-flag vessels that trade internationally today 78 currently participate in the MSP program. The number of vessels in the international trading U.S.-flag fleet has generally stayed above 100 for the past decade, reaching a peak of 106 in 2011. And since then, we have seen a decline to the 78 vessels, or roughly a 26 percent drop in the last 3 years.    The decline in this segment of the fleet is coincident with the decline of government-impelled preference cargoes, and the overall volume of preference cargo transported aboard U.S.-flag vessels has substantially decreased since 2005 when preference cargoes peaked due to military operations in Afghanistan and Iraq.    The Maritime Administration's assessment of the civilian U.S. merchant mariner pools shows that the number of civilian mariners available to crew government sealift ships, when activated, has declined over the past decade. And the number of qualified and experienced mariners available will likely not be adequate in the very near future unless we take positive action to reverse this trend.    Current estimates show that we only have about 11,280 mariners that have the necessary U.S. Coast Guard credentials to operate large seagoing ships. And we greatly value those mariners who have recently sailed and those who have experience sailing our government-owned sealift vessels. And that current number is sufficient to activate the Federal Government-owned sealift-surge sealift fleet of 63 ships, that includes both the Maritime Administration's RRF and the military's Sealift Command's surge vessels, only for a period of 4 to 6 months, but it is not enough for sustained operations.    Further losses in the number of commercial U.S.-flag ships and the corresponding loss of mariner jobs and international trade will significantly impact our ability to crew this sealift fleet in the future.    The Maritime Administration is taking action to address the issues that challenge the U.S. maritime industry through the development of a draft National Maritime Strategy. We expect to publish the draft strategy in the coming months, and I look forward to providing it to the committee.    Thank you again for your time and interest in the nation's maritime transportation capacity and capability and the opportunity to provide a status update for our program and discuss what may be a very critical juncture point for the long-term health of the international trading U.S. merchant marine.    I look forward to any questions that the subcommittee may have.    [The prepared statement of Mr. Jaenichen can be found in the Appendix on page 37.]</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">    Mr. Forbes. Without objection, all the written statements will be submitted for the record.    And Mr. DiLisio, we are glad to have you and look forward to your comments.</t>
   </si>
   <si>
-    <t>DiLisio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DiLisio. Thank you, Mr. Chairman. Chairman Forbes, Ranking Member Courtney, distinguished members of the subcommittee, thanks for the opportunity to speak about the state of readiness. I also have not only sealift, but the Combat Logistics Force [CLF] and a bunch of special mission ships that do all kinds of great things for our nation.    We continue to meet operational requirements while driving innovative and nontraditional solutions to global logistics. I am honored to be joined today by Deputy Commander U.S. Transportation Command, Lieutenant General Lyons and the Maritime Administrator, Mr. Jaenichen. We are true partners. We work very hard together, and we have worked very hard on some of these issues we are about to talk about.    I want to take a brief minute and talk about someone other than the mariners and recognize the people of the Military Sealift Command [MSC] and the Maritime Administration. The ships and facilities they operate worldwide would not work without the skilled operators and support people. And they create our readiness.    The Combat Logistics Force and strategic sealift missions are accomplished by an organic fleet comprised of 122 ships. These ships support numerous missions, including at-sea resupply of our naval combatants; pre-positioning of critical unit equipment; ammunition and sustainment for Marine Corps, Army, and the Air Force; humanitarian assistance and disaster relief activity; towing; diving and salvage operations worldwide; rapid intratheater movement of cargo and personnel; and afloat staging capabilities.    The Navy's Combat Logistics Force ships resupply Navy forces at sea, enabling carrier strike groups [CSGs] and amphibious ready groups [ARGs] to operate forward and remain on station during peacetime and war.    The Combat Logistics Force ships include replenishment oilers, T-AOs; fast combat support ships, T-AOEs; dry cargo and ammunition ships, T-AKEs. The T-AOs primarily provide fuel, but they are limited in their ability to provide dry cargo. T-AOEs and T-AKEs are multi-product ships.    This year, we will begin recapitalizing our oilers with the award of the USNS John Lewis (T-AO 205) would be our newest oiler.    The strategic sealift program provides necessary transportation of Marine Corps and Army combat equipment, fuel, and sustainment. The capabilities are provided to the combatant commanders through three methods: afloat pre-positioning, surge sealift, and sustainment shipping. Methods encompass 85 organic ships with each providing a crucial set of capabilities when called for tasking or activated for service.    The pre-positioned fleet is strategically located in key areas based on anticipated need, ensuring ready access for contingencies. Doing so provides flexible, rapid response of military equipment, combat gear, supplies essential to sustaining initial phases of contingencies, including major combat operations.    The Expeditionary Transfer Dock [ESD]--and Mr. Chairman, I promised you I would use both sets of acronyms until we are all comfortable with them--formerly the Mobile Landing Platform, MLP, joined the large, medium-speed, roll-on/roll-off ships as part of the maritime pre-positioning force.    The combination enables greater sea-basing capability and increased flexibility across the operational area. The ESD is a tremendously versatile ship and will act as a floating base for expeditionary operations.    Equipped with a deployable vehicle ramp, the ESD is an intermediary transfer point for troops, equipment, and sustainment moved ashore by landing craft, air cushion, and, here is the other one, Expeditionary Fast Transport, EPF, formerly Joint High-Speed Vessel [JHSV].    The EPF is designed for high-speed intratheater transport. Experimentation is revealing more potential missions to include high-speed logistics shuttle work, humanitarian assistance, theater security cooperation, and security force assistance.    Surge ships are the second subset of sealift, and we will talk about that more. And I will cut my comments brief. We have talked a bit about the surge.    Right now, we are working with fleet commanders to complement both Combat Logistics Force and strategic sealift capabilities by examining innovative ways to improve capability and capacity to perform theater security cooperation missions that also enhance overall Navy combat force capability. This is done through a variety of adaptive force packaging. These can create cost-effective opportunities for our fleet to expand support missions and sustain global presence.    We will continue to support forward presence, relieve stress on the rest of the force through traditional and innovative approaches. We will continue to rely on the CLF force to include our new ships that we are introducing and strategic sealift as they contribute to the Navy's tenets.    I also want to thank you for your continued support of our force. And thank you again for the opportunity to appear before the subcommittee. Thanks.    [The prepared statement of Mr. DiLisio can be found in the Appendix on page 54.]</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    And I might note for the panel that my Uncle Jack graduated from the Merchant Marine Academy and unfortunately, like so many of the men that served in World War II, he was lost at sea. So I know that the people that participate in this activity are not doing so risk free. And I appreciate every day what you do and the sacrifice that the people that you work with make.    Mr. DiLisio, I want to talk to you, and I get confused by the acronyms, too, about the Expeditionary Fast Transport Vessel, the EPF. I don't know why it is not the EFT, but it is the EPF, so I will get used to that.    As I understand it, the original plan was to build 18. We have delivered six and six are in various phases of construction or have been contracted for at the very least.    In the last 2 years, the administration has not asked for any additional of these vessels, but the Congress has gone ahead and authorized and appropriated one each year.    So you just described that the missions that that vessel can perform have actually broadened. You have discovered more things that it can do.    Talk a little bit about how important that vessel is and what you would be able to do if you had the full complement of 18.</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I want to thank our witnesses today, Mr. Jaenichen, Lieutenant General Lyons, thanks so much for all of your efforts and appreciate what you do and the challenges that you meet.    Mr. Jaenichen, I wanted to ask you--I am sorry, Mr. DiLisio, too. I'm not forgetting your presence here. I want to thank you, too.    Mr. Jaenichen, I want to ask you, specifically with the Maritime Security Program, as you know, Congress has authorized about $5 million per ship stipend to retain those vessels, to make sure we have them on standby with the necessary capacity. Yet the fiscal year 2017 budget request supports $3.1 million per ship.    If the Congress supports the administration's request, then obviously there is going to be a shortfall there in creating less capacity than what you all project that is needed to make sure we have those ships available.    So tell me what happens if Congress funds the stipend at $3.1 million versus the $5 million per ship.</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman.    You know, one of the greatest privileges that we have as Members of Congress is to get to appoint or nominate young people for the service academies. And I know that there is a merchant marine academy. I have had the privilege of sending a young lady from our district there. She loves it. And she and her family can't say enough great things about it.    So looking at the shortfall that you are talking about here in manpower, can you just give me kind of an update? I haven't had the privilege yet of visiting, it is on my to-do list. But how many people are going through the academy, and if you think this might be a bright spot in helping meet these shortfalls?</t>
   </si>
   <si>
@@ -313,9 +292,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you.    General Lyons, can you speak to your Ready Reserve Force requirements and whether or not you have enough of your either organic mariners or commercial vessels to meet that requirement?    General Lyons. Yes, ma'am. Today we have a capability that I believe is sufficient to meet the national military strategy's requirements with acceptable risk.    The issue we face is where we will be tomorrow. We see some downward trends that are significant in nature, one of which is the health of the merchant mariner industry that we have been discussing and those mariners that not only sail our commercial vessels, but also sail our Ready Reserve Force fleet, our surge fleet crew, our pre-positioned equipment that is out there today.    So we believe we are in good shape now, but we do have some concerns about where we are headed in that as well as the age-out of the organic fleet.</t>
   </si>
   <si>
@@ -338,9 +314,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. The gentleman from California, Mr. Garamendi, is recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Garamendi</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you very much, Mr. Forbes. And thank you for the courtesy of allowing me to participate.    This is the fourth hearing that I have been in in the last couple of months that deals with this issue.    And Mr. Chairman, you may want to add to your record the hearing record of those other committees. I think it would be useful in that all of those committees' hearings have all come to the same point, and that is that we have a national security issue here, a very, very serious one.    The House Armed Services Committee usually winds up talking about national security and the risks that we run. This is a real one and it is happening in real time.    And I thank you very much for your questions, Mr. Chairman. They were right on. And most of the questions I would ask, you have already done.    I just maybe kind of weave this together from this hearing and other hearings.    Mr. Jaenichen, is it about cargo? Is it really about cargo, that these ships, if they are going to be able to maintain, they have to have cargo? The food aid has been reduced, Ex-Im [Export-Import] Bank has been reduced, and the military's been reduced. Some of those are policy, some of those are fortunately the wars have ground down a bit.    Is it cargo?</t>
@@ -823,11 +796,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -847,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -875,11 +844,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -899,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -927,11 +892,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -953,11 +916,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -977,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1005,11 +964,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1029,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1055,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1081,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1107,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1133,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1159,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1211,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1237,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1263,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1317,11 +1252,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1341,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1367,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1393,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1419,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1445,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1471,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1525,11 +1444,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1549,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1575,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1601,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1627,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1653,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>48</v>
-      </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1679,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1705,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1733,11 +1636,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1757,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1783,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1809,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1835,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1861,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1887,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1913,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1939,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1965,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1993,11 +1876,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2019,11 +1900,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2045,11 +1924,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2071,11 +1948,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2097,11 +1972,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2121,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2149,11 +2020,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2173,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2201,11 +2068,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2227,11 +2092,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2253,11 +2116,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2279,11 +2140,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2303,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2331,11 +2188,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2355,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2383,11 +2236,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2409,11 +2260,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2433,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2461,11 +2308,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2487,11 +2332,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2511,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2539,11 +2380,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2563,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2591,11 +2428,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2615,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2643,11 +2476,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2667,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2695,11 +2524,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2721,11 +2548,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2745,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2771,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2797,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2823,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2849,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2875,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2901,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>98</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2929,11 +2740,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2953,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2979,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3005,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3031,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3057,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3083,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3109,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3135,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3161,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>108</v>
-      </c>
-      <c r="H92" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3187,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3213,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3239,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3265,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>108</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3293,11 +3076,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3317,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3343,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3369,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3395,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3421,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3447,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3473,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3499,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3527,11 +3292,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3551,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3579,11 +3340,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3605,11 +3364,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3629,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3657,11 +3412,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Before I begin my opening statement, let me just say that just last night I was briefed on the Farsi Island incident in January involving two U.S. Navy riverine boats and was deeply disturbed by what I heard. I was disturbed not just by the details of the incident itself, but about what they imply about the training and materiel readiness levels of our forces on the front lines and about our ability to deter Iranian aggression and malicious behavior in the Middle East.    Unfortunately, I think this administration's policies have seriously undermined both with grave implications for our men and women in uniform and our national security.    So I want to take this time to encourage my colleagues on this committee and throughout the rest of the House to get the briefing on this important topic.    And today, the subcommittee convenes to receive testimony on logistics and sealift fleet requirements.    I want to welcome our distinguished witnesses and thank them for the time and effort they expend on this most important issue. Gentlemen, we thank you for being with us today and for everything you do to defend our nation.    Since its earliest days, America has been a seafaring maritime nation with a robust merchant marine. Today, merchant ships carry around 90 percent of everything with the total amount having more than tripled since 1970. This seaborne trade fuels our economy and creates critical links with the global commons.    Unfortunately for our national security, however, this seaborne trade is being increasingly outsourced to other nations and our own merchant fleet is in decline.    Between the years 2000 and 2014, our U.S. commercial fleet has shrunk from 282 vessels to 179, a reduction of almost 40 percent. This commercial fleet reduction is increasingly problematic for the U.S. military and specifically for the U.S. Transportation Command [TRANSCOM] because these vessels support the military's maritime lift requirements and their crews provide the manning for military's mobilization forces according to MARAD [U.S. Maritime Administration] and TRANSCOM's assessments.    A reduction in the overall U.S. commercial sector has severely jeopardized our ability to sustain any level of prolonged military logistics support.    Furthermore, we are perilously close to not having sufficient mariners to support even the initial mobilization of our Navy's Ready Reserve Forces.    Unfortunately, the administration's fiscal year 2017 budget request accelerates this decline and weakens our military. The administration has proposed reducing funding for the Maritime Security Program [MSP] by almost 20 percent. Such a reduction will, in my view, undoubtedly reduce the size of our commercial fleet below TRANSCOM's military requirements and reduce our military surge capacity.    I look forward to better understanding the administration's proposal, but I am determined to change this dangerous trajectory.    Overall, I am concerned that this administration does not fully appreciate the connection between the health of our merchant fleet and our national security. Proposed changes to the Food for Peace program continue to hurt our farmers and our mariners.    While these changes would have economic impacts, this subcommittee is focused today upon its harmful impact to military readiness and the security of our nation.    In 1897, the first president of the Naval War College said that both from the military and economic view, an extensive marine commerce is a primal necessity to a country aspiring to be a naval power. In the years since, America has become the greatest naval power the world has ever seen.    But we must not let further decline in either our Navy fleet or our maritime commerce undermine our position.    I now turn to my good friend and colleague, the ranking member of the subcommittee, Congressman Courtney of Connecticut, for any remarks he may have to make.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 33.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And again, as someone who attended that briefing yesterday, I would join you in recommending to our colleagues that they follow up with the Navy to get that briefing.    Again, I don't want to just rehash a lot of the comments that you made just a moment ago because, particularly in terms of the Maritime Security Program, it is going to be, I think, an issue that our subcommittee is going to look at with this year's defense bill and for all the reasons that you set forth.    So again, rather than, you know, rehashing that comment, I guess the other issue I just would like to highlight in my opening remarks, and hopefully we will have a good dialogue today with an outstanding panel of witnesses, is the issue of maritime training requirements, because obviously we have got a workforce issue here in terms of kind of refreshing an aging workforce and in terms of, you know, the long view. This is really critical in terms of getting that right.    According to MARAD's own information, the oldest ship in the maritime training program that, again, is critical to training this next generation, the TS Empire State attached to SUNY [State University of New York] Maritime College is 55 years old and is expected to end its service life in 2019.    Again, according to MARAD, loss of this ship alone without replacement would cause a loss of 36 percent of the existing training ship capacity needed for mariner education, portrayed ``as a major setback to meet the rising national demand for mariners by the agency in its 2017 budget request to Congress.''    I want to applaud Administrator Jaenichen for his efforts to alert Congress to this issue. And again, we look forward to working with him as we put together our Seapower mark in the coming weeks to make sure that really we give these critical institutions the tools that they need to make sure that changing requirements in terms of what is needed out there are going to be met, because failure to do that is just going to create a cliff that really will ripple through our entire Armed Forces if we don't get it right.    So again, I want to thank the witnesses for being here today. I look forward to your testimony.    Again, I will request that my written remarks, prepared remarks be admitted for the record.    And yield the floor.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 35.]</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Jaenichen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jaenichen. Good afternoon, Chairman Forbes, Ranking Member Courtney, members of the subcommittee. Thank you for the opportunity to discuss the U.S. merchant marine and the support it provides for our nation to meet the Department of Defense logistics and sealift requirements.    The U.S.-flag fleet of privately owned, commercially operated vessels, along with government-owned vessels, provide sealift surge and sustainment capacity to move equipment and materiel to globally project our Armed Forces and Federal agencies when needed, where needed, during times of conflict, humanitarian crisis, and natural disasters.    Supporting these capabilities are the Maritime Administration's National Defense Reserve Fleet, Ready Reserve Force, and Maritime Security Program.    The Ready Reserve Force, or RRF, is a fleet of government-owned merchant-type vessels that ensure our capability to rapidly deploy military forces and equipment or emergency humanitarian assistance and disaster response supplies to events that require intervention by the U.S. Government.    The RRF currently consists of 46 ships selected on the basis of their capabilities, their readiness condition and location to meet Department of Defense expected surge sealift requirements.    While the RRF has provided reliable and safe sealift to support military and humanitarian missions in the past, the fleet is aging. The average age of the fleet is currently 39 years, well above the normal service life of commercial vessels.    The Maritime Administration is working closely with the Department of the Navy [DON] and DOD [Department of Defense] to monitor the material condition of the RRF as well as determining the future recapitalization requirements of the fleet.    I would note that while we have never fully activated the RRF, the 78 ships that were activated in support of operations in the first Gulf War exceed the number of vessels that I currently have in the RRF fleet.    The Maritime Security Act of 1996 established the Maritime Security Program, or MSP, which provides direct annual stipends for up to 60 active, commercially viable, militarily useful, privately owned, U.S.-flag vessels and crews operating in international trade.    The MSP fleet ensures DOD access to U.S.-flag ships and oceanborne commerce and international trade with the necessary intermodal logistics capability to move military equipment and supplies in the event of armed conflict or national emergency.    The fleet also provides critical employment for up to 2,400 qualified U.S. mariners.    Of the 78 U.S.-flag vessels that trade internationally today 78 currently participate in the MSP program. The number of vessels in the international trading U.S.-flag fleet has generally stayed above 100 for the past decade, reaching a peak of 106 in 2011. And since then, we have seen a decline to the 78 vessels, or roughly a 26 percent drop in the last 3 years.    The decline in this segment of the fleet is coincident with the decline of government-impelled preference cargoes, and the overall volume of preference cargo transported aboard U.S.-flag vessels has substantially decreased since 2005 when preference cargoes peaked due to military operations in Afghanistan and Iraq.    The Maritime Administration's assessment of the civilian U.S. merchant mariner pools shows that the number of civilian mariners available to crew government sealift ships, when activated, has declined over the past decade. And the number of qualified and experienced mariners available will likely not be adequate in the very near future unless we take positive action to reverse this trend.    Current estimates show that we only have about 11,280 mariners that have the necessary U.S. Coast Guard credentials to operate large seagoing ships. And we greatly value those mariners who have recently sailed and those who have experience sailing our government-owned sealift vessels. And that current number is sufficient to activate the Federal Government-owned sealift-surge sealift fleet of 63 ships, that includes both the Maritime Administration's RRF and the military's Sealift Command's surge vessels, only for a period of 4 to 6 months, but it is not enough for sustained operations.    Further losses in the number of commercial U.S.-flag ships and the corresponding loss of mariner jobs and international trade will significantly impact our ability to crew this sealift fleet in the future.    The Maritime Administration is taking action to address the issues that challenge the U.S. maritime industry through the development of a draft National Maritime Strategy. We expect to publish the draft strategy in the coming months, and I look forward to providing it to the committee.    Thank you again for your time and interest in the nation's maritime transportation capacity and capability and the opportunity to provide a status update for our program and discuss what may be a very critical juncture point for the long-term health of the international trading U.S. merchant marine.    I look forward to any questions that the subcommittee may have.    [The prepared statement of Mr. Jaenichen can be found in the Appendix on page 37.]</t>
   </si>
   <si>
@@ -76,6 +94,9 @@
     <t xml:space="preserve">    Mr. Forbes. Without objection, all the written statements will be submitted for the record.    And Mr. DiLisio, we are glad to have you and look forward to your comments.</t>
   </si>
   <si>
+    <t>DiLisio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DiLisio. Thank you, Mr. Chairman. Chairman Forbes, Ranking Member Courtney, distinguished members of the subcommittee, thanks for the opportunity to speak about the state of readiness. I also have not only sealift, but the Combat Logistics Force [CLF] and a bunch of special mission ships that do all kinds of great things for our nation.    We continue to meet operational requirements while driving innovative and nontraditional solutions to global logistics. I am honored to be joined today by Deputy Commander U.S. Transportation Command, Lieutenant General Lyons and the Maritime Administrator, Mr. Jaenichen. We are true partners. We work very hard together, and we have worked very hard on some of these issues we are about to talk about.    I want to take a brief minute and talk about someone other than the mariners and recognize the people of the Military Sealift Command [MSC] and the Maritime Administration. The ships and facilities they operate worldwide would not work without the skilled operators and support people. And they create our readiness.    The Combat Logistics Force and strategic sealift missions are accomplished by an organic fleet comprised of 122 ships. These ships support numerous missions, including at-sea resupply of our naval combatants; pre-positioning of critical unit equipment; ammunition and sustainment for Marine Corps, Army, and the Air Force; humanitarian assistance and disaster relief activity; towing; diving and salvage operations worldwide; rapid intratheater movement of cargo and personnel; and afloat staging capabilities.    The Navy's Combat Logistics Force ships resupply Navy forces at sea, enabling carrier strike groups [CSGs] and amphibious ready groups [ARGs] to operate forward and remain on station during peacetime and war.    The Combat Logistics Force ships include replenishment oilers, T-AOs; fast combat support ships, T-AOEs; dry cargo and ammunition ships, T-AKEs. The T-AOs primarily provide fuel, but they are limited in their ability to provide dry cargo. T-AOEs and T-AKEs are multi-product ships.    This year, we will begin recapitalizing our oilers with the award of the USNS John Lewis (T-AO 205) would be our newest oiler.    The strategic sealift program provides necessary transportation of Marine Corps and Army combat equipment, fuel, and sustainment. The capabilities are provided to the combatant commanders through three methods: afloat pre-positioning, surge sealift, and sustainment shipping. Methods encompass 85 organic ships with each providing a crucial set of capabilities when called for tasking or activated for service.    The pre-positioned fleet is strategically located in key areas based on anticipated need, ensuring ready access for contingencies. Doing so provides flexible, rapid response of military equipment, combat gear, supplies essential to sustaining initial phases of contingencies, including major combat operations.    The Expeditionary Transfer Dock [ESD]--and Mr. Chairman, I promised you I would use both sets of acronyms until we are all comfortable with them--formerly the Mobile Landing Platform, MLP, joined the large, medium-speed, roll-on/roll-off ships as part of the maritime pre-positioning force.    The combination enables greater sea-basing capability and increased flexibility across the operational area. The ESD is a tremendously versatile ship and will act as a floating base for expeditionary operations.    Equipped with a deployable vehicle ramp, the ESD is an intermediary transfer point for troops, equipment, and sustainment moved ashore by landing craft, air cushion, and, here is the other one, Expeditionary Fast Transport, EPF, formerly Joint High-Speed Vessel [JHSV].    The EPF is designed for high-speed intratheater transport. Experimentation is revealing more potential missions to include high-speed logistics shuttle work, humanitarian assistance, theater security cooperation, and security force assistance.    Surge ships are the second subset of sealift, and we will talk about that more. And I will cut my comments brief. We have talked a bit about the surge.    Right now, we are working with fleet commanders to complement both Combat Logistics Force and strategic sealift capabilities by examining innovative ways to improve capability and capacity to perform theater security cooperation missions that also enhance overall Navy combat force capability. This is done through a variety of adaptive force packaging. These can create cost-effective opportunities for our fleet to expand support missions and sustain global presence.    We will continue to support forward presence, relieve stress on the rest of the force through traditional and innovative approaches. We will continue to rely on the CLF force to include our new ships that we are introducing and strategic sealift as they contribute to the Navy's tenets.    I also want to thank you for your continued support of our force. And thank you again for the opportunity to appear before the subcommittee. Thanks.    [The prepared statement of Mr. DiLisio can be found in the Appendix on page 54.]</t>
   </si>
   <si>
@@ -121,6 +142,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    And I might note for the panel that my Uncle Jack graduated from the Merchant Marine Academy and unfortunately, like so many of the men that served in World War II, he was lost at sea. So I know that the people that participate in this activity are not doing so risk free. And I appreciate every day what you do and the sacrifice that the people that you work with make.    Mr. DiLisio, I want to talk to you, and I get confused by the acronyms, too, about the Expeditionary Fast Transport Vessel, the EPF. I don't know why it is not the EFT, but it is the EPF, so I will get used to that.    As I understand it, the original plan was to build 18. We have delivered six and six are in various phases of construction or have been contracted for at the very least.    In the last 2 years, the administration has not asked for any additional of these vessels, but the Congress has gone ahead and authorized and appropriated one each year.    So you just described that the missions that that vessel can perform have actually broadened. You have discovered more things that it can do.    Talk a little bit about how important that vessel is and what you would be able to do if you had the full complement of 18.</t>
   </si>
   <si>
@@ -148,6 +175,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I want to thank our witnesses today, Mr. Jaenichen, Lieutenant General Lyons, thanks so much for all of your efforts and appreciate what you do and the challenges that you meet.    Mr. Jaenichen, I wanted to ask you--I am sorry, Mr. DiLisio, too. I'm not forgetting your presence here. I want to thank you, too.    Mr. Jaenichen, I want to ask you, specifically with the Maritime Security Program, as you know, Congress has authorized about $5 million per ship stipend to retain those vessels, to make sure we have them on standby with the necessary capacity. Yet the fiscal year 2017 budget request supports $3.1 million per ship.    If the Congress supports the administration's request, then obviously there is going to be a shortfall there in creating less capacity than what you all project that is needed to make sure we have those ships available.    So tell me what happens if Congress funds the stipend at $3.1 million versus the $5 million per ship.</t>
   </si>
   <si>
@@ -175,6 +208,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman.    You know, one of the greatest privileges that we have as Members of Congress is to get to appoint or nominate young people for the service academies. And I know that there is a merchant marine academy. I have had the privilege of sending a young lady from our district there. She loves it. And she and her family can't say enough great things about it.    So looking at the shortfall that you are talking about here in manpower, can you just give me kind of an update? I haven't had the privilege yet of visiting, it is on my to-do list. But how many people are going through the academy, and if you think this might be a bright spot in helping meet these shortfalls?</t>
   </si>
   <si>
@@ -292,6 +331,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you.    General Lyons, can you speak to your Ready Reserve Force requirements and whether or not you have enough of your either organic mariners or commercial vessels to meet that requirement?    General Lyons. Yes, ma'am. Today we have a capability that I believe is sufficient to meet the national military strategy's requirements with acceptable risk.    The issue we face is where we will be tomorrow. We see some downward trends that are significant in nature, one of which is the health of the merchant mariner industry that we have been discussing and those mariners that not only sail our commercial vessels, but also sail our Ready Reserve Force fleet, our surge fleet crew, our pre-positioned equipment that is out there today.    So we believe we are in good shape now, but we do have some concerns about where we are headed in that as well as the age-out of the organic fleet.</t>
   </si>
   <si>
@@ -314,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. The gentleman from California, Mr. Garamendi, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Garamendi</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you very much, Mr. Forbes. And thank you for the courtesy of allowing me to participate.    This is the fourth hearing that I have been in in the last couple of months that deals with this issue.    And Mr. Chairman, you may want to add to your record the hearing record of those other committees. I think it would be useful in that all of those committees' hearings have all come to the same point, and that is that we have a national security issue here, a very, very serious one.    The House Armed Services Committee usually winds up talking about national security and the risks that we run. This is a real one and it is happening in real time.    And I thank you very much for your questions, Mr. Chairman. They were right on. And most of the questions I would ask, you have already done.    I just maybe kind of weave this together from this hearing and other hearings.    Mr. Jaenichen, is it about cargo? Is it really about cargo, that these ships, if they are going to be able to maintain, they have to have cargo? The food aid has been reduced, Ex-Im [Export-Import] Bank has been reduced, and the military's been reduced. Some of those are policy, some of those are fortunately the wars have ground down a bit.    Is it cargo?</t>
@@ -746,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +802,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2645 +824,3102 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Courtney</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t>412601</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Byrne</t>
@@ -794,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,7 +814,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,3099 +839,3336 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>115</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>115</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>115</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>119</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>115</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>115</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>119</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>119</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>143</v>
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
